--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>Username</t>
   </si>
@@ -25,10 +25,10 @@
     <t>Bartek</t>
   </si>
   <si>
-    <t/>
+    <t>Just edited excel file!</t>
   </si>
   <si>
-    <t>Just edited excel file!</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -371,7 +371,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -397,7 +397,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
